--- a/data/trans_camb/P9_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 13,48</t>
+          <t>-18,19; 18,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 8,31</t>
+          <t>-10,4; 10,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 6,98</t>
+          <t>-9,83; 9,68</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,07%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 17,22</t>
+          <t>-19,79; 25,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 9,31</t>
+          <t>-10,69; 12,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 8,16</t>
+          <t>-10,58; 11,34</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 23,18</t>
+          <t>-35,51; 28,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 11,06</t>
+          <t>-14,68; 14,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 13,78</t>
+          <t>-20,02; 17,45</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-0,41%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 32,54</t>
+          <t>-40,11; 44,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 14,41</t>
+          <t>-16,35; 18,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 18,44</t>
+          <t>-23,06; 24,58</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 12,06</t>
+          <t>-11,58; 11,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,13</t>
+          <t>-5,86; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 6,25</t>
+          <t>-6,52; 5,98</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>0,08%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 15,1</t>
+          <t>-12,57; 14,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 6,84</t>
+          <t>-6,06; 7,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 7,11</t>
+          <t>-6,84; 6,75</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 7,23</t>
+          <t>-8,68; 9,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,66</t>
+          <t>-9,23; 9,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,06</t>
+          <t>-6,58; 6,66</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>0,01%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 8,4</t>
+          <t>-9,23; 11,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 9,51</t>
+          <t>-10,19; 11,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 6,17</t>
+          <t>-7,38; 7,87</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 13,45</t>
+          <t>-14,46; 15,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 12,02</t>
+          <t>-16,69; 17,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 8,64</t>
+          <t>-11,77; 13,6</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 21,21</t>
+          <t>-18,08; 25,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 18,73</t>
+          <t>-21,09; 28,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 13,51</t>
+          <t>-15,21; 20,52</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 15,35</t>
+          <t>-22,0; 21,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 17,0</t>
+          <t>-21,16; 21,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 12,39</t>
+          <t>-17,45; 15,31</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>-1,11%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 32,46</t>
+          <t>-30,6; 46,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 46,02</t>
+          <t>-42,08; 75,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 28,65</t>
+          <t>-28,0; 36,77</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,52</t>
+          <t>-8,58; 8,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,86</t>
+          <t>-5,41; 5,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,53</t>
+          <t>-4,96; 4,88</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-0,31%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,58</t>
+          <t>-10,28; 11,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,45</t>
+          <t>-6,45; 7,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,92</t>
+          <t>-6,0; 6,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4777076916274603</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4137011055606488</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4307711088328614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,19; 18,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,4; 10,77</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; 9,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.11351539864964</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.70185993860054</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.165869406063502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.80281788785443</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.123619286124</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.02217306752141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-19,79; 25,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; 12,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,58; 11,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.005574568536402178</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.004424858186724022</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.004775906616211554</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1957616075130009</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.08891136075186763</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.09641473165460408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-35,51; 28,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 14,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; 17,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2537454320101615</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.127843149630608</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.117953455139137</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,62%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.71771680199584</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.02110361521455717</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.244582556406759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-40,11; 44,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; 18,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-23,06; 24,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-26.62990461286623</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.78415766799665</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.17000854541628</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>32.87943792522077</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.41902519926975</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.24029106334745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 11,53</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 6,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; 5,98</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.03519358671055103</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.0002464101441962239</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01529380875851767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3080796324825692</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1534391089590022</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1972153685463864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; 14,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 7,56</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 6,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5678828332592796</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1908752962667315</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2741518692088494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.172288219793816</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2753619002717866</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.6463912274091488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 9,44</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; 9,84</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,58; 6,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.509899540413059</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.572917556936834</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.663947012796481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,14%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.55963049699007</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.945872909862345</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.502152095999349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; 11,3</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 11,98</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-7,38; 7,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.0131656902205295</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.002941981170898871</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.007040935077580346</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1044123283747031</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.05894653434548722</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06047726888190804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 15,74</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 17,49</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 13,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1513494735923345</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.0771528727546518</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.07235666519756509</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.1620827020665572</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3546341799188113</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2552493576508552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-18,08; 25,51</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-21,09; 28,33</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-15,21; 20,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.791534230466311</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.956715374327127</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.492277889196843</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.637234120477348</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.00716894111658</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.665243398949904</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-22,0; 21,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; 21,94</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-17,45; 15,31</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.001807328569036192</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.004074955632298942</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.002892333442259715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-0,83%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.09350246371529428</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.09792723187576069</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.07109505428340621</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-30,6; 46,99</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-42,08; 75,91</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-28,0; 36,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1156063649083068</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1228545598734262</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07964394827672912</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0.1749293081982795</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.3372595465624628</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.04749900970011378</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 8,81</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 5,47</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 4,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-14.83784855758906</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-17.57540033098871</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-12.06374705386474</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>14.95324338272281</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.25176635002969</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>13.43533898275953</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 11,74</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 7,01</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 6,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.002481641915067696</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.004666569270526199</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.0006666509194251553</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1937365806522608</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2229462293594496</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1586329768718086</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.2446756634638151</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.2721079885218728</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2127861846163763</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1.671758347305619</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.6549115224045998</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1.346628315399034</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-19.25699445310445</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-20.54637729081512</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-15.54209409984545</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>25.45466518840154</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>22.7875521977856</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>17.05762023406979</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.02710882404779621</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.01616425161325406</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.02682937108462371</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2749035472797606</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4146364406755414</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2621510067115481</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.5364698190615496</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.7778308351078391</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.398996506830246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.100356752010112</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.5768126967280685</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.8174114330503968</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-6.888064016752812</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4.372560040200867</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-3.545281871263137</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>9.684056301981304</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>6.507692090751117</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.897807794096356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.01375879004412983</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.007049099516585231</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.01009577356735273</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.08335360264008312</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.05296081485113349</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.0433031710168647</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.1282882341256246</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.08258920304833009</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.07560048826077113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
